--- a/medicine/Sexualité et sexologie/Prostitution_aux_Îles_Turques-et-Caïques/Prostitution_aux_Îles_Turques-et-Caïques.xlsx
+++ b/medicine/Sexualité et sexologie/Prostitution_aux_Îles_Turques-et-Caïques/Prostitution_aux_Îles_Turques-et-Caïques.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prostitution_aux_%C3%8Eles_Turques-et-Ca%C3%AFques</t>
+          <t>Prostitution_aux_Îles_Turques-et-Caïques</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La prostitution aux îles Turques-et-Caïques est communément répandue.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prostitution_aux_%C3%8Eles_Turques-et-Ca%C3%AFques</t>
+          <t>Prostitution_aux_Îles_Turques-et-Caïques</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Détail du phénomène</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La prostitution est chose commune aux  îles Turques-et-Caïques, et plus spécifiquement à Providenciales[1]. Les travailleurs ou travailleuses du sexe sont généralement originaires d'Europe de l'Est et de République Dominicaine[2].
-Les îles sont connues comme étant une destination de tourisme sexuel féminin[2], et des problèmes relatifs à des cas de trafic sexuel[3] et de contaminations au VIH / SIDA[2] ont été relevés.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La prostitution est chose commune aux  îles Turques-et-Caïques, et plus spécifiquement à Providenciales. Les travailleurs ou travailleuses du sexe sont généralement originaires d'Europe de l'Est et de République Dominicaine.
+Les îles sont connues comme étant une destination de tourisme sexuel féminin, et des problèmes relatifs à des cas de trafic sexuel et de contaminations au VIH / SIDA ont été relevés.
 </t>
         </is>
       </c>
